--- a/sample_info/Oak_DNA_extractions.xlsx
+++ b/sample_info/Oak_DNA_extractions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ido Bar\OneDrive - Griffith University\Research\Supervision\Science_Capstone_Research_Project\Oak_Biomolecular_Science_Project\Nanopore_sequencing\Pathogen_diagnostics_analysis\sample_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adido\OneDrive - Griffith University\Research\Supervision\Science_Capstone_Research_Project\Oak_Biomolecular_Science_Project\Nanopore_sequencing\Pathogen_diagnostics_analysis\sample_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_90D94683806F2B0F90E216778B4DEF3FA4265E84" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{E20FB5B6-10FB-40BC-876B-BDA51A36FFC2}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_90D94683806F2B0F90E216778B4DEF3FA4265E84" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{2B46C1D0-0F2C-4A87-B609-3BD67D8B68D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Desired DNA [ng]=</t>
   </si>
@@ -76,6 +76,27 @@
   </si>
   <si>
     <t xml:space="preserve">Nanodrop_conc [ng/ul] </t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>9 dpi</t>
+  </si>
+  <si>
+    <t>0 hpi</t>
+  </si>
+  <si>
+    <t>48 hpi (control)</t>
+  </si>
+  <si>
+    <t>48 hpi (inoculated)</t>
+  </si>
+  <si>
+    <t>48 hpi (sterilised)</t>
   </si>
 </sst>
 </file>
@@ -737,10 +758,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17BDCE1C-3B17-4200-8906-64EBFC3FC243}" name="Table13" displayName="Table13" ref="A1:G9" totalsRowShown="0">
-  <autoFilter ref="A1:G9" xr:uid="{C8FA02F5-2B75-4CB6-A7E3-C37293A670A5}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{192B6AA1-B504-40EB-8831-D09A68646396}" name="Sample ID"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17BDCE1C-3B17-4200-8906-64EBFC3FC243}" name="Table13" displayName="Table13" ref="A1:H9" totalsRowShown="0">
+  <autoFilter ref="A1:H9" xr:uid="{C8FA02F5-2B75-4CB6-A7E3-C37293A670A5}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{192B6AA1-B504-40EB-8831-D09A68646396}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{02DD65AE-C58A-4AAE-A9FF-FCD78386272C}" name="Sample"/>
     <tableColumn id="4" xr3:uid="{DFBD6F52-FCF0-4473-8E44-96C403EFF71F}" name="Nanodrop_conc [ng/ul] "/>
     <tableColumn id="5" xr3:uid="{FE047A8D-7B78-4196-8C1A-91C7D02A5A60}" name="A260 "/>
     <tableColumn id="6" xr3:uid="{FBEDA8C8-0D71-4186-90F0-9FD449AB9CB3}" name="A280 "/>
@@ -1082,26 +1104,26 @@
       <selection activeCell="W13" sqref="M5:W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.265625" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" customWidth="1"/>
-    <col min="16" max="16" width="7.59765625" customWidth="1"/>
-    <col min="17" max="18" width="6.59765625" customWidth="1"/>
-    <col min="19" max="19" width="5.73046875" customWidth="1"/>
-    <col min="20" max="20" width="4.86328125" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="17" max="18" width="6.5703125" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" customWidth="1"/>
     <col min="21" max="21" width="5" customWidth="1"/>
-    <col min="22" max="22" width="5.73046875" customWidth="1"/>
-    <col min="23" max="23" width="6.86328125" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="13:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="13:23" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1131,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="13:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="13:23" x14ac:dyDescent="0.25">
       <c r="N3" t="s">
         <v>1</v>
       </c>
@@ -1117,7 +1139,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="13:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="13:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M6">
         <v>1</v>
       </c>
@@ -1189,7 +1211,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="13:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M7">
         <v>2</v>
       </c>
@@ -1226,7 +1248,7 @@
         <v>-2.75</v>
       </c>
     </row>
-    <row r="8" spans="13:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M8">
         <v>3</v>
       </c>
@@ -1263,7 +1285,7 @@
         <v>-10.850000000000001</v>
       </c>
     </row>
-    <row r="9" spans="13:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M9">
         <v>4</v>
       </c>
@@ -1300,7 +1322,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="13:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M10">
         <v>5</v>
       </c>
@@ -1337,7 +1359,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="13:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M11">
         <v>6</v>
       </c>
@@ -1374,7 +1396,7 @@
         <v>-1.3000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="13:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M12" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1433,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="13" spans="13:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M13" t="s">
         <v>14</v>
       </c>
@@ -1465,222 +1487,249 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D876F7F-7A80-4654-9C8E-A6D2091CC2E1}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>83.5</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.67</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.92600000000000005</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.8</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.96</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>63.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>56.96</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.139</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.628</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.81</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.86</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
         <v>50.17</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.0029999999999999</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.57299999999999995</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.75</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.82</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>21.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
         <v>108.3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2.1659999999999999</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.22</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.78</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.13</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>78.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
         <v>113.68</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2.274</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.2729999999999999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.79</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
         <v>60.72</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.214</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.67600000000000005</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.8</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2.02</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>45.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
         <v>250.06</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5.0010000000000003</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2.7450000000000001</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.82</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2.02</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
         <v>171.21</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3.4239999999999999</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.69</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.17</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>76.400000000000006</v>
       </c>
     </row>
